--- a/database_excel_files/Student.xlsx
+++ b/database_excel_files/Student.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,120 @@
   </si>
   <si>
     <t>b123</t>
+  </si>
+  <si>
+    <t>C123413</t>
+  </si>
+  <si>
+    <t>mary@mail.com</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>98d0e59407f946b7aed49150ceba8627</t>
+  </si>
+  <si>
+    <t>C128813</t>
+  </si>
+  <si>
+    <t>henry@mail.com</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>c6a4beee0132472a99800fe0c310c731</t>
+  </si>
+  <si>
+    <t>C133313</t>
+  </si>
+  <si>
+    <t>caleb@mail.com</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>justin@mail.com</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>c9d8e441332d46bbb9655b8239c26e94</t>
+  </si>
+  <si>
+    <t>C120513</t>
+  </si>
+  <si>
+    <t>lopez@mail.com</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>C121713</t>
+  </si>
+  <si>
+    <t>winston@mail.com</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>C129013</t>
+  </si>
+  <si>
+    <t>wick@mail.com</t>
+  </si>
+  <si>
+    <t>Wick</t>
+  </si>
+  <si>
+    <t>C127413</t>
+  </si>
+  <si>
+    <t>will@mail.com</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>C125413</t>
+  </si>
+  <si>
+    <t>greg@mail.com</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>C254513</t>
+  </si>
+  <si>
+    <t>goh@mail.com</t>
+  </si>
+  <si>
+    <t>Goh</t>
+  </si>
+  <si>
+    <t>C028813</t>
+  </si>
+  <si>
+    <t>hank@mail.com</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>C727413</t>
+  </si>
+  <si>
+    <t>william@mail.com</t>
+  </si>
+  <si>
+    <t>William</t>
   </si>
 </sst>
 </file>
@@ -404,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -445,13 +559,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>1</v>
@@ -460,33 +574,240 @@
         <v>0</v>
       </c>
       <c r="F2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/Student.xlsx
+++ b/database_excel_files/Student.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>William</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>password!</t>
   </si>
 </sst>
 </file>
@@ -568,13 +574,13 @@
         <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>22</v>
@@ -591,13 +597,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E3" t="b" s="0">
         <v>0</v>
       </c>
       <c r="F3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>22</v>

--- a/database_excel_files/Student.xlsx
+++ b/database_excel_files/Student.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angyu\Desktop\Uni stuff\Y2 SEM1\SC2002 - Obj Oriented Des &amp; Prog\Group project\SC2002_Lab_Project-main (7)\SC2002_Lab_Project-main\database_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B3DD8AE5-13C6-43E1-A360-D620ACDEE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{393797FB-0F87-4DF4-BB0A-2CB83D506614}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD670A4-EF4E-4D2A-AFB1-432BB4E986CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-990" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -42,57 +42,12 @@
     <t>isCampCommitee</t>
   </si>
   <si>
-    <t>A123456</t>
-  </si>
-  <si>
-    <t>john.doe@email.com</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>B789012</t>
-  </si>
-  <si>
-    <t>jane.smith@email.com</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>securePass</t>
-  </si>
-  <si>
     <t>isNewLogin</t>
   </si>
   <si>
-    <t>john.doe@mail.com</t>
-  </si>
-  <si>
-    <t>jane.smith@mail.com</t>
-  </si>
-  <si>
     <t>facultyId</t>
   </si>
   <si>
-    <t>a123</t>
-  </si>
-  <si>
-    <t>b123</t>
-  </si>
-  <si>
-    <t>C123413</t>
-  </si>
-  <si>
-    <t>mary@mail.com</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
     <t>98d0e59407f946b7aed49150ceba8627</t>
   </si>
   <si>
@@ -117,12 +72,6 @@
     <t>Caleb</t>
   </si>
   <si>
-    <t>justin@mail.com</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
     <t>c9d8e441332d46bbb9655b8239c26e94</t>
   </si>
   <si>
@@ -196,19 +145,12 @@
   </si>
   <si>
     <t>William</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>password!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,10 +197,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,296 +462,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="64.5703125"/>
-    <col min="2" max="2" customWidth="true" width="71.5703125"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125"/>
-    <col min="4" max="4" customWidth="true" width="22.42578125"/>
-    <col min="5" max="5" customWidth="true" width="21.85546875"/>
-    <col min="6" max="6" customWidth="true" width="51.42578125"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="71.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="0">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="E2" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s" s="0">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E3" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>22</v>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
